--- a/문서/갤럭시S8플러스 가격비교2222.xlsx
+++ b/문서/갤럭시S8플러스 가격비교2222.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\카톡 다운 폴더\a기상청\기타 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\Gaia_Github3\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24150" windowHeight="11655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24150" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
@@ -388,6 +388,51 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,65 +442,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,11 +736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,381 +751,382 @@
     <col min="5" max="5" width="28.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>1269000</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="9">
         <v>1269000</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>1269000</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>1270000</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>1270000</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="9">
         <v>1270000</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>1280000</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>1308000</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="23">
         <v>1321740</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>10</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="24">
         <v>1340450</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="18"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="19"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
